--- a/counter/results.xlsx
+++ b/counter/results.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Counter</t>
   </si>
@@ -28,7 +28,7 @@
     <t xml:space="preserve">Benchmark</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of units</t>
+    <t xml:space="preserve">Number of compute nodes</t>
   </si>
   <si>
     <t xml:space="preserve">Total execution time (s)</t>
@@ -40,25 +40,13 @@
     <t xml:space="preserve">Average</t>
   </si>
   <si>
-    <t xml:space="preserve">NBC2</t>
+    <t xml:space="preserve">Non-blocking Counter with Contention</t>
   </si>
   <si>
     <t xml:space="preserve">Test</t>
   </si>
   <si>
-    <t xml:space="preserve">1 node</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 nodes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 nodes</t>
+    <t xml:space="preserve">Non-blocking Counter without Contention</t>
   </si>
 </sst>
 </file>
@@ -68,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,6 +84,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,7 +143,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -149,8 +152,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -217,10 +240,10 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -233,12 +256,354 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Test</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-blocking Counter without Contention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$13:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2582.44494433333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3968.27611066667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6255.61880633333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8075.25577266667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9862.14759266667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12210.585658</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13778.233719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16095.256984</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18093.786834</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19834.150352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Non-blocking Counter with Contention</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1539.243051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>681.156573333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>537.459599666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>502.105814666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>477.015489</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>465.696916</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>447.283671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>430.850632333333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>422.955229</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.5673286666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="93530724"/>
+        <c:axId val="33590673"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93530724"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Number of compute nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="33590673"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33590673"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Operations per ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="93530724"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -249,16 +614,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="-6.25039064941559E-005"/>
-          <c:y val="0"/>
-          <c:w val="1"/>
-          <c:h val="1"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -295,16 +652,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>423720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>154440</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552960</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -312,8 +669,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1931760" y="1348200"/>
-        <a:ext cx="5754960" cy="3241800"/>
+        <a:off x="703800" y="3738960"/>
+        <a:ext cx="5754960" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -331,28 +688,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.26"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -371,120 +728,711 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="n">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="n">
+      <c r="H2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
+      <c r="C3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.308607</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.30905</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.318048</v>
       </c>
       <c r="G3" s="0" t="n">
         <f aca="false">(D3+E3+F3)/3</f>
-        <v>0</v>
+        <v>0.311901666666667</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1555.376255</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1553.14674</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1509.206158</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="false">(H3 + I3 + J3) / 3</f>
-        <v>0</v>
+        <v>1539.243051</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1.402276</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.42032</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1.405637</v>
       </c>
       <c r="G4" s="0" t="n">
         <f aca="false">(D4+E4+F4)/3</f>
-        <v>0</v>
+        <v>1.409411</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>684.60132</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>675.904022</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>682.964378</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="false">(H4 + I4 + J4) / 3</f>
-        <v>0</v>
+        <v>681.156573333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>2.684805</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2.683799</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2.669266</v>
       </c>
       <c r="G5" s="0" t="n">
         <f aca="false">(D5+E5+F5)/3</f>
-        <v>0</v>
+        <v>2.67929</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>536.351802</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>536.552849</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>539.474148</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="false">(H5 + I5 + J5) / 3</f>
-        <v>0</v>
+        <v>537.459599666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3.825826</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>3.828116</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>3.817759</v>
       </c>
       <c r="G6" s="0" t="n">
         <f aca="false">(D6+E6+F6)/3</f>
-        <v>0</v>
+        <v>3.82390033333333</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>501.85241</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>501.5522</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>502.912834</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="false">(H6 + I6 + J6) / 3</f>
-        <v>0</v>
+        <v>502.105814666667</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5.029096</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>5.024289</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>5.040492</v>
       </c>
       <c r="G7" s="0" t="n">
         <f aca="false">(D7+E7+F7)/3</f>
-        <v>0</v>
+        <v>5.03129233333333</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>477.222944</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>477.679528</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>476.143995</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="false">(H7 + I7 + J7) / 3</f>
-        <v>0</v>
+        <v>477.015489</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>6.192451</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>6.162531</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>6.197975</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <f aca="false">(D8+E8+F8)/3</f>
+        <v>6.184319</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>465.082404</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>467.340448</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>464.667896</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">(H8 + I8 + J8) / 3</f>
+        <v>465.696916</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>7.477008</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>7.520013</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>7.539284</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <f aca="false">(D9+E9+F9)/3</f>
+        <v>7.51210166666667</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>449.377612</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>446.807738</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>445.665663</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="false">(H9 + I9 + J9) / 3</f>
+        <v>447.283671</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>8.792044</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>8.917935</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9.031035</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <f aca="false">(D10+E10+F10)/3</f>
+        <v>8.91367133333333</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>436.758506</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>430.592957</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>425.200434</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="false">(H10 + I10 + J10) / 3</f>
+        <v>430.850632333333</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10.170804</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>10.228658</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>10.242362</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">(D11+E11+F11)/3</f>
+        <v>10.2139413333333</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>424.745182</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>422.342794</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>421.777711</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">(H11 + I11 + J11) / 3</f>
+        <v>422.955229</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>153.322305</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>138.631762</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>151.079814</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <f aca="false">(D12+E12+F12)/3</f>
+        <v>147.677960333333</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>31.3066</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>34.6241</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>31.771286</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">(H12 + I12 + J12) / 3</f>
+        <v>32.5673286666667</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.18428</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.18848</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.184906</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <f aca="false">(D13+E13+F13)/3</f>
+        <v>0.185888666666667</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>2604.73193</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>2546.689304</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2595.913599</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">(H13 + I13 + J13) / 3</f>
+        <v>2582.44494433333</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.238379</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.239437</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.248176</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <f aca="false">(D14+E14+F14)/3</f>
+        <v>0.241997333333333</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>4027.200383</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>4009.405397</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>3868.222552</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">(H14 + I14 + J14) / 3</f>
+        <v>3968.27611066667</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.227322</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.230341</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.232986</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <f aca="false">(D15+E15+F15)/3</f>
+        <v>0.230216333333333</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>6334.626653</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>6251.600887</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>6180.628879</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">(H15 + I15 + J15) / 3</f>
+        <v>6255.61880633333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.234153</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.237009</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.24227</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <f aca="false">(D16+E16+F16)/3</f>
+        <v>0.237810666666667</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>8199.766819</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>8100.958191</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>7925.042308</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">(H16 + I16 + J16) / 3</f>
+        <v>8075.25577266667</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.236095</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.246837</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.247473</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <f aca="false">(D17+E17+F17)/3</f>
+        <v>0.243468333333333</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>10165.399521</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>9723.015593</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>9698.027664</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">(H17 + I17 + J17) / 3</f>
+        <v>9862.14759266667</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.239637</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.237931</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.23023</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <f aca="false">(D18+E18+F18)/3</f>
+        <v>0.235932666666667</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>12018.177493</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>12104.34958</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>12509.229901</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">(H18 + I18 + J18) / 3</f>
+        <v>12210.585658</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.237683</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.246958</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.247192</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <f aca="false">(D19+E19+F19)/3</f>
+        <v>0.243944333333333</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>14136.475894</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>13605.552361</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>13592.672902</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="false">(H19 + I19 + J19) / 3</f>
+        <v>13778.233719</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.234536</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.240201</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.241109</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <f aca="false">(D20+E20+F20)/3</f>
+        <v>0.238615333333333</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>16372.75301</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>15986.611213</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>15926.406729</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="false">(H20 + I20 + J20) / 3</f>
+        <v>16095.256984</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.244468</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.235867</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.236131</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <f aca="false">(D21+E21+F21)/3</f>
+        <v>0.238822</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>17671.024429</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>18315.406564</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>18294.929509</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="false">(H21 + I21 + J21) / 3</f>
+        <v>18093.786834</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.239555</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.242587</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.24392</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <f aca="false">(D22+E22+F22)/3</f>
+        <v>0.242020666666667</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>20037.15222</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>19786.715694</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>19678.583142</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="false">(H22 + I22 + J22) / 3</f>
+        <v>19834.150352</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="B13:B22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
